--- a/Keys.xlsx
+++ b/Keys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Blockchain\blockchainApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326FB121-CBCA-45DD-ADCE-484743117EB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E619FD83-32AF-4DEF-9D70-2900B589EBB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{E58C6761-25A1-4C77-AB59-69EBD6E5E41F}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Keys.xlsx
+++ b/Keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Blockchain\blockchainApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E619FD83-32AF-4DEF-9D70-2900B589EBB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA7462F-357A-49DE-9AEA-50EFDF668A71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{E58C6761-25A1-4C77-AB59-69EBD6E5E41F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E58C6761-25A1-4C77-AB59-69EBD6E5E41F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
